--- a/koding2/hasil_similarity.xlsx
+++ b/koding2/hasil_similarity.xlsx
@@ -14,67 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>kode</t>
+    <t>s1a</t>
   </si>
   <si>
-    <t>skor</t>
-  </si>
-  <si>
-    <t>jawaban_jawaban</t>
-  </si>
-  <si>
-    <t>s1a</t>
+    <t>s1a_QE</t>
   </si>
   <si>
     <t>s1b</t>
   </si>
   <si>
+    <t>s1b_QE</t>
+  </si>
+  <si>
     <t>s2a</t>
+  </si>
+  <si>
+    <t>s2a_QE</t>
   </si>
   <si>
     <t>s2b</t>
   </si>
   <si>
+    <t>s2b_QE</t>
+  </si>
+  <si>
     <t>s3</t>
+  </si>
+  <si>
+    <t>s3_QE</t>
   </si>
   <si>
     <t>s4</t>
   </si>
   <si>
+    <t>s4_QE</t>
+  </si>
+  <si>
     <t>s5</t>
   </si>
   <si>
-    <t>sebuah chip yang berfungsi sebagai pengontrol rangkaian elektronik yang umumnya menyimpan program dan terdiri dari CPU, memori, I/O tertentu dan unit pendukung seperti analog to digital converter yang sudah terintegrasi di dalamnya. Berdasarkan nilai yang berada pada register program counter mikrokontroler mengambil data pada ROM dengan alamat sebagaimana yang tertera pada register program counter. Instruksi yang diambil tersebut diolah dan disajikan oleh mikrokontroler.</t>
-  </si>
-  <si>
-    <t>sensor gerak, berfungsi sebagai device input yang menangkap pergerakan yang kemudian diubah menjadi suatu data inputan.
--	sensor panas, berfungsi sebagai device input yang mendeteksi suhu dengan panas tertentu sebagai inputan datanya pada mikrokontroler.
--	sensor suara, berfungsi sebagai device input yang mendeteksi frekuensi suara tertentu 
--	Sensor api/asap, berfungsi sebagai device input yang mendeteksi kemunculan/percikan api atau asap sebagai inputan datanya pada mikrokontroler.</t>
-  </si>
-  <si>
-    <t>Perangkat mobile akan menjadi pusat kegiatan manusia karena sistem pembayaran tunai akan semakin ditinggalkan dan digantikan dengan sistem mobile payment, mobile banking, semakin banyak bermunculan game-game berbasis mobile, ataupun perangkat mobile digunakan sebagai alat yang dijadikan identitas diri sehingga tidak diperlukan kartu identitas.</t>
-  </si>
-  <si>
-    <t>Menganalisis dan merancang aplikasi seperti apa yang ingin  dibuat, dan menentukan dimana atau sepreti apa aplikasi tersebut akan digunakan.
-Memahami dan menguasai bahasa pemrograman yang digunakan untuk membuat aplikasi berbasis mobile seperti Java, JavaScript, Swift, Kotlin, Objective L, dan C++.
-Memiliki perangkat yang memadai.
-Menentukan aplikasi akan bersifat native atau react native.
-Menggunakan text editor yang sesuai, contoh text editor : Android Studio, Macbook XCode.</t>
-  </si>
-  <si>
-    <t>Analisis sistem : menganalisis dan mendefinisikan masalah dan kemungkinan solusinya untuk sistem informasi dan proses organisasi.
--	Design sistem : merancang output, input, struktur file, program, perangkat keras dan lunak yang diperlukan untuk mendukung sistem informasi.
--	Implementasi sistem : instalasi perangkat keras dan lunak lalu dilakukan pengujian terhadap sistem dan pelatihan kepada peamakai serta melakukan dokumentasi dan konversi.
--	Operasi dan pemeliharaan : mendukung operasi sistem dan melakukan pembaruan dan perawatan pada sistem.</t>
-  </si>
-  <si>
-    <t>Virtual reality adalah teknologi yang membuat pengguna dapat berinteraksi dengan suatu lingkungan yang disimulasikan komputer melalui berbagai panca indranya sehingga pengguna seolah merasakan dunia yang nyata baik secara fisik maupun psikologis.</t>
-  </si>
-  <si>
-    <t>interface yang baik itu memiliki tampilan yang jelas, dan singkat, desain yang intuitif yang dapat dimengerti dengan mudah secara natural, responsif, menarik, efisien, konsisten dan mengunakan icon yang dapat mengartikan suatu fungsi hanya dengan melihat gambarnya.</t>
+    <t>s5_QE</t>
   </si>
 </sst>
 </file>
@@ -432,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,103 +429,2012 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0.4175334003835326</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.4426422973348011</v>
+      </c>
+      <c r="D2">
+        <v>0.4143702882815501</v>
+      </c>
+      <c r="E2">
+        <v>0.4025236843413021</v>
+      </c>
+      <c r="F2">
+        <v>0.5497624996033735</v>
+      </c>
+      <c r="G2">
+        <v>0.5463583647081529</v>
+      </c>
+      <c r="H2">
+        <v>0.5389933524563126</v>
+      </c>
+      <c r="I2">
+        <v>0.5389933524563126</v>
+      </c>
+      <c r="J2">
+        <v>0.900975081542756</v>
+      </c>
+      <c r="K2">
+        <v>0.8960758180297881</v>
+      </c>
+      <c r="L2">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M2">
+        <v>0.6172133998483676</v>
+      </c>
+      <c r="N2">
+        <v>0.6047431568147635</v>
+      </c>
+      <c r="O2">
+        <v>0.6052099385894467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>0.515779025308008</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.531494003452734</v>
+      </c>
+      <c r="D3">
+        <v>0.5519432490854204</v>
+      </c>
+      <c r="E3">
+        <v>0.5105934085664762</v>
+      </c>
+      <c r="F3">
+        <v>0.6583225748013583</v>
+      </c>
+      <c r="G3">
+        <v>0.669498029825554</v>
+      </c>
+      <c r="H3">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="I3">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="J3">
+        <v>0.4855461893999543</v>
+      </c>
+      <c r="K3">
+        <v>0.4900437298271014</v>
+      </c>
+      <c r="L3">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M3">
+        <v>0.6232502388407516</v>
+      </c>
+      <c r="N3">
+        <v>0.3779644730092272</v>
+      </c>
+      <c r="O3">
+        <v>0.3857583749052297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>0.4514144863878443</v>
       </c>
       <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.5007190225013659</v>
+      </c>
+      <c r="D4">
+        <v>0.3195460915757697</v>
+      </c>
+      <c r="E4">
+        <v>0.4276814146126334</v>
+      </c>
+      <c r="F4">
+        <v>0.172773685116272</v>
+      </c>
+      <c r="G4">
+        <v>0.1841773671709393</v>
+      </c>
+      <c r="H4">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="I4">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="J4">
+        <v>0.7765181209455854</v>
+      </c>
+      <c r="K4">
+        <v>0.7668115805072325</v>
+      </c>
+      <c r="L4">
+        <v>0.5962847939999439</v>
+      </c>
+      <c r="M4">
+        <v>0.6232502388407516</v>
+      </c>
+      <c r="N4">
+        <v>0.2672612419124243</v>
+      </c>
+      <c r="O4">
+        <v>0.3273268353539886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5">
+        <v>0.4556611884328836</v>
       </c>
       <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.4556611884328836</v>
+      </c>
+      <c r="D5">
+        <v>0.4909704088672135</v>
+      </c>
+      <c r="E5">
+        <v>0.4849451414697145</v>
+      </c>
+      <c r="F5">
+        <v>0.6776741475716972</v>
+      </c>
+      <c r="G5">
+        <v>0.6776741475716972</v>
+      </c>
+      <c r="H5">
+        <v>0.6352234031660235</v>
+      </c>
+      <c r="I5">
+        <v>0.6352234031660235</v>
+      </c>
+      <c r="J5">
+        <v>0.825717079666016</v>
+      </c>
+      <c r="K5">
+        <v>0.8267541279362938</v>
+      </c>
+      <c r="L5">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M5">
+        <v>0.6232502388407516</v>
+      </c>
+      <c r="N5">
+        <v>0.6573757351339165</v>
+      </c>
+      <c r="O5">
+        <v>0.6141922686399942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6">
+        <v>0.4142585780542456</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.4142585780542456</v>
+      </c>
+      <c r="D6">
+        <v>0.6192698487986218</v>
+      </c>
+      <c r="E6">
+        <v>0.6410347129574457</v>
+      </c>
+      <c r="F6">
+        <v>0.712691451104622</v>
+      </c>
+      <c r="G6">
+        <v>0.7042596327420652</v>
+      </c>
+      <c r="H6">
+        <v>0.4674463943059244</v>
+      </c>
+      <c r="I6">
+        <v>0.4674463943059244</v>
+      </c>
+      <c r="J6">
+        <v>0.9222386156364972</v>
+      </c>
+      <c r="K6">
+        <v>0.9222386156364972</v>
+      </c>
+      <c r="L6">
+        <v>0.6154574548966638</v>
+      </c>
+      <c r="M6">
+        <v>0.6154574548966638</v>
+      </c>
+      <c r="N6">
+        <v>0.5860090386731193</v>
+      </c>
+      <c r="O6">
+        <v>0.6591270461219716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>0.276172385369497</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.2881854393574164</v>
+      </c>
+      <c r="D7">
+        <v>0.3766384739831928</v>
+      </c>
+      <c r="E7">
+        <v>0.4217021038631339</v>
+      </c>
+      <c r="F7">
+        <v>0.5629784083986618</v>
+      </c>
+      <c r="G7">
+        <v>0.5629784083986618</v>
+      </c>
+      <c r="H7">
+        <v>0.4865336327998411</v>
+      </c>
+      <c r="I7">
+        <v>0.347524023428458</v>
+      </c>
+      <c r="J7">
+        <v>0.9203579866168446</v>
+      </c>
+      <c r="K7">
+        <v>0.9187142215594153</v>
+      </c>
+      <c r="L7">
+        <v>0.6040686963408963</v>
+      </c>
+      <c r="M7">
+        <v>0.6040686963408963</v>
+      </c>
+      <c r="N7">
+        <v>0.6135419995345952</v>
+      </c>
+      <c r="O7">
+        <v>0.6479515952918626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0.4947178617271307</v>
+      </c>
+      <c r="C8">
+        <v>0.506866323714614</v>
+      </c>
+      <c r="D8">
+        <v>0.4439119477001963</v>
+      </c>
+      <c r="E8">
+        <v>0.5648456717647683</v>
+      </c>
+      <c r="F8">
+        <v>0.259160527674408</v>
+      </c>
+      <c r="G8">
+        <v>0.259160527674408</v>
+      </c>
+      <c r="H8">
+        <v>0.300964632714423</v>
+      </c>
+      <c r="I8">
+        <v>0.3185110286353031</v>
+      </c>
+      <c r="J8">
+        <v>0.6454009396347017</v>
+      </c>
+      <c r="K8">
+        <v>0.5956655028657843</v>
+      </c>
+      <c r="L8">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="M8">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="N8">
+        <v>0.4677071733467426</v>
+      </c>
+      <c r="O8">
+        <v>0.5197011503876874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.6674165979762845</v>
+      </c>
+      <c r="C9">
+        <v>0.6674165979762845</v>
+      </c>
+      <c r="D9">
+        <v>0.3937807653241083</v>
+      </c>
+      <c r="E9">
+        <v>0.4375565062966515</v>
+      </c>
+      <c r="F9">
+        <v>0.6002842255014931</v>
+      </c>
+      <c r="G9">
+        <v>0.6002842255014931</v>
+      </c>
+      <c r="H9">
+        <v>0.1965892748731962</v>
+      </c>
+      <c r="I9">
+        <v>0.1965892748731962</v>
+      </c>
+      <c r="J9">
+        <v>0.755026169168349</v>
+      </c>
+      <c r="K9">
+        <v>0.755026169168349</v>
+      </c>
+      <c r="L9">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="M9">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="N9">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="O9">
+        <v>0.4008918628686365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.4710412031873157</v>
+      </c>
+      <c r="C10">
+        <v>0.5055107012718832</v>
+      </c>
+      <c r="D10">
+        <v>0.4353849965835195</v>
+      </c>
+      <c r="E10">
+        <v>0.5687944388014898</v>
+      </c>
+      <c r="F10">
+        <v>0.5760230254359425</v>
+      </c>
+      <c r="G10">
+        <v>0.6222392934932578</v>
+      </c>
+      <c r="H10">
+        <v>0.6010025069647601</v>
+      </c>
+      <c r="I10">
+        <v>0.5389933524563126</v>
+      </c>
+      <c r="J10">
+        <v>0.6911017447681793</v>
+      </c>
+      <c r="K10">
+        <v>0.7306074418198553</v>
+      </c>
+      <c r="L10">
+        <v>0.4564354645876385</v>
+      </c>
+      <c r="M10">
+        <v>0.4899789435061114</v>
+      </c>
+      <c r="N10">
+        <v>0.5128225940683707</v>
+      </c>
+      <c r="O10">
+        <v>0.545544725589981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="B11">
+        <v>0.759935107010553</v>
+      </c>
+      <c r="C11">
+        <v>0.7565246347996416</v>
+      </c>
+      <c r="D11">
+        <v>0.4640987591319848</v>
+      </c>
+      <c r="E11">
+        <v>0.4640750824358426</v>
+      </c>
+      <c r="F11">
+        <v>0.6009942011789683</v>
+      </c>
+      <c r="G11">
+        <v>0.561979444039004</v>
+      </c>
+      <c r="H11">
+        <v>0.5812323842128647</v>
+      </c>
+      <c r="I11">
+        <v>0.6259425676138543</v>
+      </c>
+      <c r="J11">
+        <v>0.7740938179174751</v>
+      </c>
+      <c r="K11">
+        <v>0.7740938179174751</v>
+      </c>
+      <c r="L11">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="M11">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="N11">
+        <v>0.6205427141408236</v>
+      </c>
+      <c r="O11">
+        <v>0.6237449404683603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3971869795707654</v>
+      </c>
+      <c r="C12">
+        <v>0.3971869795707654</v>
+      </c>
+      <c r="D12">
+        <v>0.4340120802867591</v>
+      </c>
+      <c r="E12">
+        <v>0.5223035885611197</v>
+      </c>
+      <c r="F12">
+        <v>0.4886777774252209</v>
+      </c>
+      <c r="G12">
+        <v>0.5224185187586713</v>
+      </c>
+      <c r="H12">
+        <v>0.5078556267557568</v>
+      </c>
+      <c r="I12">
+        <v>0.5308517143921717</v>
+      </c>
+      <c r="J12">
+        <v>0.5590169943749475</v>
+      </c>
+      <c r="K12">
+        <v>0.5857122361103716</v>
+      </c>
+      <c r="L12">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M12">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N12">
+        <v>0.5765566601970551</v>
+      </c>
+      <c r="O12">
+        <v>0.5669467095138409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.719646282647288</v>
+      </c>
+      <c r="C13">
+        <v>0.7311899903858645</v>
+      </c>
+      <c r="D13">
+        <v>0.4446819603304273</v>
+      </c>
+      <c r="E13">
+        <v>0.4611151317320629</v>
+      </c>
+      <c r="F13">
+        <v>0.1639075094124459</v>
+      </c>
+      <c r="G13">
+        <v>0.1995018672215266</v>
+      </c>
+      <c r="H13">
+        <v>0.5216720300383332</v>
+      </c>
+      <c r="I13">
+        <v>0.4973358977281674</v>
+      </c>
+      <c r="J13">
+        <v>0.6757894331999365</v>
+      </c>
+      <c r="K13">
+        <v>0.6733710503344879</v>
+      </c>
+      <c r="L13">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M13">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N13">
+        <v>0.314970394174356</v>
+      </c>
+      <c r="O13">
+        <v>0.4040610178208843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.6846642484984249</v>
+      </c>
+      <c r="C14">
+        <v>0.667638150481223</v>
+      </c>
+      <c r="D14">
+        <v>0.3897418814769785</v>
+      </c>
+      <c r="E14">
+        <v>0.3897418814769785</v>
+      </c>
+      <c r="F14">
+        <v>0.518321055348816</v>
+      </c>
+      <c r="G14">
+        <v>0.5082556106787729</v>
+      </c>
+      <c r="H14">
+        <v>0.4256282653793743</v>
+      </c>
+      <c r="I14">
+        <v>0.4256282653793743</v>
+      </c>
+      <c r="J14">
+        <v>0.9356972863937918</v>
+      </c>
+      <c r="K14">
+        <v>0.9339475705392294</v>
+      </c>
+      <c r="L14">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="M14">
+        <v>0.4351941398892445</v>
+      </c>
+      <c r="N14">
+        <v>0.7559289460184544</v>
+      </c>
+      <c r="O14">
+        <v>0.7370434740955019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.4556611884328836</v>
+      </c>
+      <c r="C15">
+        <v>0.4736317334630045</v>
+      </c>
+      <c r="D15">
+        <v>0.3276454016925058</v>
+      </c>
+      <c r="E15">
+        <v>0.3631205586088292</v>
+      </c>
+      <c r="F15">
+        <v>0.1221694443563052</v>
+      </c>
+      <c r="G15">
+        <v>0.1221694443563052</v>
+      </c>
+      <c r="H15">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="I15">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="J15">
+        <v>0.9414508326671501</v>
+      </c>
+      <c r="K15">
+        <v>0.9370425713316363</v>
+      </c>
+      <c r="L15">
+        <v>0.5962847939999439</v>
+      </c>
+      <c r="M15">
+        <v>0.5962847939999439</v>
+      </c>
+      <c r="N15">
+        <v>0.6761234037828131</v>
+      </c>
+      <c r="O15">
+        <v>0.7423074889580903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.3361463227264072</v>
+      </c>
+      <c r="C16">
+        <v>0.3361463227264072</v>
+      </c>
+      <c r="D16">
+        <v>0.3093991727546565</v>
+      </c>
+      <c r="E16">
+        <v>0.3778897099834718</v>
+      </c>
+      <c r="F16">
+        <v>0.172773685116272</v>
+      </c>
+      <c r="G16">
+        <v>0.2992528008322898</v>
+      </c>
+      <c r="H16">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="I16">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="J16">
+        <v>0.91569791623482</v>
+      </c>
+      <c r="K16">
+        <v>0.9091567729142478</v>
+      </c>
+      <c r="L16">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="M16">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="N16">
+        <v>0.3779644730092272</v>
+      </c>
+      <c r="O16">
+        <v>0.3779644730092272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.3905667329424717</v>
+      </c>
+      <c r="C17">
+        <v>0.3905667329424717</v>
+      </c>
+      <c r="D17">
+        <v>0.397778642087865</v>
+      </c>
+      <c r="E17">
+        <v>0.3988149755212998</v>
+      </c>
+      <c r="F17">
+        <v>0.5497624996033735</v>
+      </c>
+      <c r="G17">
+        <v>0.5463583647081529</v>
+      </c>
+      <c r="H17">
+        <v>0.2553769592276245</v>
+      </c>
+      <c r="I17">
+        <v>0.2553769592276245</v>
+      </c>
+      <c r="J17">
+        <v>0.8708733445028645</v>
+      </c>
+      <c r="K17">
+        <v>0.8708733445028645</v>
+      </c>
+      <c r="L17">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M17">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N17">
+        <v>0.6446583712203042</v>
+      </c>
+      <c r="O17">
+        <v>0.6141922686399942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.3006584112011316</v>
+      </c>
+      <c r="C18">
+        <v>0.3006584112011316</v>
+      </c>
+      <c r="D18">
+        <v>0.533676050223615</v>
+      </c>
+      <c r="E18">
+        <v>0.5398615641108684</v>
+      </c>
+      <c r="F18">
+        <v>0.259160527674408</v>
+      </c>
+      <c r="G18">
+        <v>0.2821382463434393</v>
+      </c>
+      <c r="H18">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="I18">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="J18">
+        <v>0.9413574486632833</v>
+      </c>
+      <c r="K18">
+        <v>0.937911430972559</v>
+      </c>
+      <c r="L18">
+        <v>0.6546536707079772</v>
+      </c>
+      <c r="M18">
+        <v>0.6546536707079772</v>
+      </c>
+      <c r="N18">
+        <v>0.5669467095138409</v>
+      </c>
+      <c r="O18">
+        <v>0.5669467095138409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.5063160398440779</v>
+      </c>
+      <c r="C19">
+        <v>0.5352015302352019</v>
+      </c>
+      <c r="D19">
+        <v>0.9906394195807722</v>
+      </c>
+      <c r="E19">
+        <v>0.9906394195807722</v>
+      </c>
+      <c r="F19">
+        <v>0.9795347226725087</v>
+      </c>
+      <c r="G19">
+        <v>0.9795347226725087</v>
+      </c>
+      <c r="H19">
+        <v>0.9877853674972468</v>
+      </c>
+      <c r="I19">
+        <v>0.9877853674972468</v>
+      </c>
+      <c r="J19">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.4082482904638631</v>
+      </c>
+      <c r="M19">
+        <v>0.4308202184276646</v>
+      </c>
+      <c r="N19">
+        <v>0.7559289460184544</v>
+      </c>
+      <c r="O19">
+        <v>0.7370434740955019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.7814189157266966</v>
+      </c>
+      <c r="C20">
+        <v>0.7814189157266966</v>
+      </c>
+      <c r="D20">
+        <v>0.477334370505438</v>
+      </c>
+      <c r="E20">
+        <v>0.469194088848588</v>
+      </c>
+      <c r="F20">
+        <v>0.540867186500379</v>
+      </c>
+      <c r="G20">
+        <v>0.5271067837010361</v>
+      </c>
+      <c r="H20">
+        <v>0.5406205059012895</v>
+      </c>
+      <c r="I20">
+        <v>0.5406205059012895</v>
+      </c>
+      <c r="J20">
+        <v>0.5209458852746756</v>
+      </c>
+      <c r="K20">
+        <v>0.5270462766947299</v>
+      </c>
+      <c r="L20">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M20">
+        <v>0.5797509043642028</v>
+      </c>
+      <c r="N20">
+        <v>0.2886751345948129</v>
+      </c>
+      <c r="O20">
+        <v>0.4073065399812784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.3610790723370595</v>
+      </c>
+      <c r="C21">
+        <v>0.3409145938362817</v>
+      </c>
+      <c r="D21">
+        <v>0.5400421924444914</v>
+      </c>
+      <c r="E21">
+        <v>0.5098425081672265</v>
+      </c>
+      <c r="F21">
+        <v>0.3049533664072637</v>
+      </c>
+      <c r="G21">
+        <v>0.3420744441976546</v>
+      </c>
+      <c r="H21">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="I21">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="J21">
+        <v>0.6761234037828132</v>
+      </c>
+      <c r="K21">
+        <v>0.626099033699941</v>
+      </c>
+      <c r="L21">
+        <v>0.6751356017927664</v>
+      </c>
+      <c r="M21">
+        <v>0.6804138174397718</v>
+      </c>
+      <c r="N21">
+        <v>0.4225771273642582</v>
+      </c>
+      <c r="O21">
+        <v>0.4225771273642582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="B22">
+        <v>0.8034302205918253</v>
+      </c>
+      <c r="C22">
+        <v>0.791485690693586</v>
+      </c>
+      <c r="D22">
+        <v>0.3781051633074216</v>
+      </c>
+      <c r="E22">
+        <v>0.4284822591584185</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.5992047090185105</v>
+      </c>
+      <c r="I22">
+        <v>0.6313087395543334</v>
+      </c>
+      <c r="J22">
+        <v>0.8390823912222561</v>
+      </c>
+      <c r="K22">
+        <v>0.8527534261421067</v>
+      </c>
+      <c r="L22">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="M22">
+        <v>0.6123724356957946</v>
+      </c>
+      <c r="N22">
+        <v>0.4485426135725303</v>
+      </c>
+      <c r="O22">
+        <v>0.5128225940683707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.3936542650440983</v>
+      </c>
+      <c r="C23">
+        <v>0.3705241363166782</v>
+      </c>
+      <c r="D23">
+        <v>0.5121211546009102</v>
+      </c>
+      <c r="E23">
+        <v>0.5263708479254839</v>
+      </c>
+      <c r="F23">
+        <v>0.2731791823540765</v>
+      </c>
+      <c r="G23">
+        <v>0.2731791823540765</v>
+      </c>
+      <c r="H23">
+        <v>0.5107539184552491</v>
+      </c>
+      <c r="I23">
+        <v>0.5107539184552491</v>
+      </c>
+      <c r="J23">
+        <v>0.9173460685716212</v>
+      </c>
+      <c r="K23">
+        <v>0.9110125823684571</v>
+      </c>
+      <c r="L23">
+        <v>0.6056978774101714</v>
+      </c>
+      <c r="M23">
+        <v>0.6056978774101714</v>
+      </c>
+      <c r="N23">
+        <v>0.5958540230683372</v>
+      </c>
+      <c r="O23">
+        <v>0.6633387633919149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.429601488352551</v>
+      </c>
+      <c r="C24">
+        <v>0.4593340031782376</v>
+      </c>
+      <c r="D24">
+        <v>0.4222746799637292</v>
+      </c>
+      <c r="E24">
+        <v>0.5432013034275552</v>
+      </c>
+      <c r="F24">
+        <v>0.6095130071085144</v>
+      </c>
+      <c r="G24">
+        <v>0.6310117175837755</v>
+      </c>
+      <c r="H24">
+        <v>0.5008354224706334</v>
+      </c>
+      <c r="I24">
+        <v>0.5008354224706334</v>
+      </c>
+      <c r="J24">
+        <v>0.9453974602395946</v>
+      </c>
+      <c r="K24">
+        <v>0.9431191251430151</v>
+      </c>
+      <c r="L24">
+        <v>0.8000946913656629</v>
+      </c>
+      <c r="M24">
+        <v>0.8029550685469663</v>
+      </c>
+      <c r="N24">
+        <v>0.6131393394849658</v>
+      </c>
+      <c r="O24">
+        <v>0.6615814157039656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.4441019053226952</v>
+      </c>
+      <c r="C25">
+        <v>0.4773593402630208</v>
+      </c>
+      <c r="D25">
+        <v>0.159111456835146</v>
+      </c>
+      <c r="E25">
+        <v>0.159111456835146</v>
+      </c>
+      <c r="F25">
+        <v>0.1221694443563052</v>
+      </c>
+      <c r="G25">
+        <v>0.1995018672215266</v>
+      </c>
+      <c r="H25">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="I25">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="J25">
+        <v>0.7159143337951358</v>
+      </c>
+      <c r="K25">
+        <v>0.6746192341692543</v>
+      </c>
+      <c r="L25">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M25">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N25">
+        <v>0.6900655593423541</v>
+      </c>
+      <c r="O25">
+        <v>0.76837607049822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.6955452668565111</v>
+      </c>
+      <c r="C26">
+        <v>0.6832927268999982</v>
+      </c>
+      <c r="D26">
+        <v>0.159111456835146</v>
+      </c>
+      <c r="E26">
+        <v>0.159111456835146</v>
+      </c>
+      <c r="F26">
+        <v>0.518321055348816</v>
+      </c>
+      <c r="G26">
+        <v>0.4937419311010188</v>
+      </c>
+      <c r="H26">
+        <v>0.4454276564173461</v>
+      </c>
+      <c r="I26">
+        <v>0.4799138191337427</v>
+      </c>
+      <c r="J26">
+        <v>0.9399176854780702</v>
+      </c>
+      <c r="K26">
+        <v>0.9358192003574065</v>
+      </c>
+      <c r="L26">
+        <v>0.6931032800836721</v>
+      </c>
+      <c r="M26">
+        <v>0.7024393586862705</v>
+      </c>
+      <c r="N26">
+        <v>0.4810702354423638</v>
+      </c>
+      <c r="O26">
+        <v>0.5611425419454065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.3037741256219224</v>
+      </c>
+      <c r="C27">
+        <v>0.3293547878370473</v>
+      </c>
+      <c r="D27">
+        <v>0.3375263702778071</v>
+      </c>
+      <c r="E27">
+        <v>0.3375263702778071</v>
+      </c>
+      <c r="F27">
+        <v>0.518321055348816</v>
+      </c>
+      <c r="G27">
+        <v>0.4937419311010188</v>
+      </c>
+      <c r="H27">
+        <v>0.4006683379765067</v>
+      </c>
+      <c r="I27">
+        <v>0.4006683379765067</v>
+      </c>
+      <c r="J27">
+        <v>0.9297096320895033</v>
+      </c>
+      <c r="K27">
+        <v>0.924241430699913</v>
+      </c>
+      <c r="L27">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="M27">
+        <v>0.7144345083117604</v>
+      </c>
+      <c r="N27">
+        <v>0.4008918628686365</v>
+      </c>
+      <c r="O27">
+        <v>0.4183300132670378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.3905667329424717</v>
+      </c>
+      <c r="C28">
+        <v>0.3971869795707654</v>
+      </c>
+      <c r="D28">
+        <v>0.3682714621051772</v>
+      </c>
+      <c r="E28">
+        <v>0.3988149755212998</v>
+      </c>
+      <c r="F28">
+        <v>0.3683547343418786</v>
+      </c>
+      <c r="G28">
+        <v>0.3683547343418786</v>
+      </c>
+      <c r="H28">
+        <v>0.1702513061517497</v>
+      </c>
+      <c r="I28">
+        <v>0.1702513061517497</v>
+      </c>
+      <c r="J28">
+        <v>0.8909545442950498</v>
+      </c>
+      <c r="K28">
+        <v>0.8909545442950498</v>
+      </c>
+      <c r="L28">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="M28">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="N28">
+        <v>0.5041841733655161</v>
+      </c>
+      <c r="O28">
+        <v>0.5790660241435861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.3905667329424717</v>
+      </c>
+      <c r="C29">
+        <v>0.344447481913586</v>
+      </c>
+      <c r="D29">
+        <v>0.354363216636144</v>
+      </c>
+      <c r="E29">
+        <v>0.5173208178089782</v>
+      </c>
+      <c r="F29">
+        <v>0.7102658741205989</v>
+      </c>
+      <c r="G29">
+        <v>0.7102658741205989</v>
+      </c>
+      <c r="H29">
+        <v>0.5676134788000512</v>
+      </c>
+      <c r="I29">
+        <v>0.6113149794833975</v>
+      </c>
+      <c r="J29">
+        <v>0.8354413588941736</v>
+      </c>
+      <c r="K29">
+        <v>0.836732461496034</v>
+      </c>
+      <c r="L29">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M29">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N29">
+        <v>0.5345224838248488</v>
+      </c>
+      <c r="O29">
+        <v>0.5636214801906779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.5467934261194602</v>
+      </c>
+      <c r="C30">
+        <v>0.5467934261194602</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.6515703699002945</v>
+      </c>
+      <c r="G30">
+        <v>0.6515703699002945</v>
+      </c>
+      <c r="H30">
+        <v>0.1965892748731962</v>
+      </c>
+      <c r="I30">
+        <v>0.1965892748731962</v>
+      </c>
+      <c r="J30">
+        <v>0.9295339333952974</v>
+      </c>
+      <c r="K30">
+        <v>0.9250731320417149</v>
+      </c>
+      <c r="L30">
+        <v>0.4308202184276646</v>
+      </c>
+      <c r="M30">
+        <v>0.5095246653650681</v>
+      </c>
+      <c r="N30">
+        <v>0.5426095162342934</v>
+      </c>
+      <c r="O30">
+        <v>0.5749889084999459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.4571237848023165</v>
+      </c>
+      <c r="C31">
+        <v>0.4801129810537008</v>
+      </c>
+      <c r="D31">
+        <v>0.4691474960006366</v>
+      </c>
+      <c r="E31">
+        <v>0.5052467333920879</v>
+      </c>
+      <c r="F31">
+        <v>0.5985056016645797</v>
+      </c>
+      <c r="G31">
+        <v>0.6181339274290045</v>
+      </c>
+      <c r="H31">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="I31">
+        <v>0.2407717061715384</v>
+      </c>
+      <c r="J31">
+        <v>0.7818393231813856</v>
+      </c>
+      <c r="K31">
+        <v>0.7504665215717485</v>
+      </c>
+      <c r="L31">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M31">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N31">
+        <v>0.7576144084141581</v>
+      </c>
+      <c r="O31">
+        <v>0.7245688373094719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.7462300828299228</v>
+      </c>
+      <c r="C32">
+        <v>0.7224838568509475</v>
+      </c>
+      <c r="D32">
+        <v>0.318222913670292</v>
+      </c>
+      <c r="E32">
+        <v>0.318222913670292</v>
+      </c>
+      <c r="F32">
+        <v>0.237185951650094</v>
+      </c>
+      <c r="G32">
+        <v>0.2963044254729799</v>
+      </c>
+      <c r="H32">
+        <v>0.4037864265436241</v>
+      </c>
+      <c r="I32">
+        <v>0.4273273869671518</v>
+      </c>
+      <c r="J32">
+        <v>0.7155417527999327</v>
+      </c>
+      <c r="K32">
+        <v>0.6771457123762016</v>
+      </c>
+      <c r="L32">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.3903600291794132</v>
+      </c>
+      <c r="O32">
+        <v>0.3903600291794132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.276172385369497</v>
+      </c>
+      <c r="C33">
+        <v>0.3006584112011316</v>
+      </c>
+      <c r="D33">
+        <v>0.4112905955283691</v>
+      </c>
+      <c r="E33">
+        <v>0.5158868485494945</v>
+      </c>
+      <c r="F33">
+        <v>0.2992528008322898</v>
+      </c>
+      <c r="G33">
+        <v>0.323229967577727</v>
+      </c>
+      <c r="H33">
+        <v>0.4865336327998411</v>
+      </c>
+      <c r="I33">
+        <v>0.4949015419574726</v>
+      </c>
+      <c r="J33">
+        <v>0.3505839284808859</v>
+      </c>
+      <c r="K33">
+        <v>0.3505839284808859</v>
+      </c>
+      <c r="L33">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M33">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N33">
+        <v>0.6316761657092368</v>
+      </c>
+      <c r="O33">
+        <v>0.6049173981197841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.4706048518169701</v>
+      </c>
+      <c r="C34">
+        <v>0.4851107751287571</v>
+      </c>
+      <c r="D34">
+        <v>0.4638856253622454</v>
+      </c>
+      <c r="E34">
+        <v>0.4638856253622454</v>
+      </c>
+      <c r="F34">
+        <v>0.4319342127906801</v>
+      </c>
+      <c r="G34">
+        <v>0.4937419311010188</v>
+      </c>
+      <c r="H34">
+        <v>0.2903816034562511</v>
+      </c>
+      <c r="I34">
+        <v>0.2837521769195829</v>
+      </c>
+      <c r="J34">
+        <v>0.9250425415642805</v>
+      </c>
+      <c r="K34">
+        <v>0.9218833182453279</v>
+      </c>
+      <c r="L34">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M34">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N34">
+        <v>0.6708203932499369</v>
+      </c>
+      <c r="O34">
+        <v>0.6628489803598702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.5705236958467228</v>
+      </c>
+      <c r="E35">
+        <v>0.5773002106410261</v>
+      </c>
+      <c r="F35">
+        <v>0.6047078979069521</v>
+      </c>
+      <c r="G35">
+        <v>0.6446346328718919</v>
+      </c>
+      <c r="H35">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="I35">
+        <v>0.3230291412348993</v>
+      </c>
+      <c r="J35">
+        <v>0.8907861696277058</v>
+      </c>
+      <c r="K35">
+        <v>0.8905003232386125</v>
+      </c>
+      <c r="L35">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M35">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N35">
+        <v>0.7051102404077108</v>
+      </c>
+      <c r="O35">
+        <v>0.7899531467283195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.4871223004474547</v>
+      </c>
+      <c r="C36">
+        <v>0.499614643488032</v>
+      </c>
+      <c r="D36">
+        <v>0.4112905955283691</v>
+      </c>
+      <c r="E36">
+        <v>0.4892030460383138</v>
+      </c>
+      <c r="F36">
+        <v>0.3990037344430531</v>
+      </c>
+      <c r="G36">
+        <v>0.3990037344430531</v>
+      </c>
+      <c r="H36">
+        <v>0.1203858530857692</v>
+      </c>
+      <c r="I36">
+        <v>0.4815434123430768</v>
+      </c>
+      <c r="J36">
+        <v>0.768273325346536</v>
+      </c>
+      <c r="K36">
+        <v>0.768273325346536</v>
+      </c>
+      <c r="L36">
+        <v>0.5685735326841777</v>
+      </c>
+      <c r="M36">
+        <v>0.5685735326841777</v>
+      </c>
+      <c r="N36">
+        <v>0.6250541102117805</v>
+      </c>
+      <c r="O36">
+        <v>0.6806139097297725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.5173182753754855</v>
+      </c>
+      <c r="C37">
+        <v>0.5562209219481867</v>
+      </c>
+      <c r="D37">
+        <v>0.318222913670292</v>
+      </c>
+      <c r="E37">
+        <v>0.5052467333920879</v>
+      </c>
+      <c r="F37">
+        <v>0.259160527674408</v>
+      </c>
+      <c r="G37">
+        <v>0.3090669637145023</v>
+      </c>
+      <c r="H37">
+        <v>0.3405026123034994</v>
+      </c>
+      <c r="I37">
+        <v>0.3405026123034994</v>
+      </c>
+      <c r="J37">
+        <v>0.9276093015884664</v>
+      </c>
+      <c r="K37">
+        <v>0.9236539023710739</v>
+      </c>
+      <c r="L37">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M37">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N37">
+        <v>0.4225771273642582</v>
+      </c>
+      <c r="O37">
+        <v>0.4157609203101499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.7015362928026403</v>
+      </c>
+      <c r="C38">
+        <v>0.7015362928026403</v>
+      </c>
+      <c r="D38">
+        <v>0.4268526565901834</v>
+      </c>
+      <c r="E38">
+        <v>0.4909828401524634</v>
+      </c>
+      <c r="F38">
+        <v>0.5497624996033735</v>
+      </c>
+      <c r="G38">
+        <v>0.4066044885430183</v>
+      </c>
+      <c r="H38">
+        <v>0.5081678060484395</v>
+      </c>
+      <c r="I38">
+        <v>0.5081678060484395</v>
+      </c>
+      <c r="J38">
+        <v>0.9038439312957063</v>
+      </c>
+      <c r="K38">
+        <v>0.8991060050915066</v>
+      </c>
+      <c r="L38">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M38">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N38">
+        <v>0.6002842255014931</v>
+      </c>
+      <c r="O38">
+        <v>0.667124384994991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.3758230140014145</v>
+      </c>
+      <c r="C39">
+        <v>0.3905667329424717</v>
+      </c>
+      <c r="D39">
+        <v>0.4731532589725052</v>
+      </c>
+      <c r="E39">
+        <v>0.4698962479938227</v>
+      </c>
+      <c r="F39">
+        <v>0.5985056016645797</v>
+      </c>
+      <c r="G39">
+        <v>0.5037175233040658</v>
+      </c>
+      <c r="H39">
+        <v>0.6270361875933954</v>
+      </c>
+      <c r="I39">
+        <v>0.6270361875933954</v>
+      </c>
+      <c r="J39">
+        <v>0.7437357441610946</v>
+      </c>
+      <c r="K39">
+        <v>0.7474093186836598</v>
+      </c>
+      <c r="L39">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="M39">
+        <v>0.5892556509887896</v>
+      </c>
+      <c r="N39">
+        <v>0.7559289460184544</v>
+      </c>
+      <c r="O39">
+        <v>0.7370434740955019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.4317877695883728</v>
+      </c>
+      <c r="C40">
+        <v>0.4369902195443293</v>
+      </c>
+      <c r="D40">
+        <v>0.5162257329196673</v>
+      </c>
+      <c r="E40">
+        <v>0.5256373193414494</v>
+      </c>
+      <c r="F40">
+        <v>0.6262030483811937</v>
+      </c>
+      <c r="G40">
+        <v>0.6437904401931123</v>
+      </c>
+      <c r="H40">
+        <v>0.4815434123430768</v>
+      </c>
+      <c r="I40">
+        <v>0.4170288281141495</v>
+      </c>
+      <c r="J40">
+        <v>0.7416840554408852</v>
+      </c>
+      <c r="K40">
+        <v>0.7416840554408852</v>
+      </c>
+      <c r="L40">
+        <v>0.6435959029348384</v>
+      </c>
+      <c r="M40">
+        <v>0.6435959029348384</v>
+      </c>
+      <c r="N40">
+        <v>0.4364357804719848</v>
+      </c>
+      <c r="O40">
+        <v>0.5241424183609592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.2254938084008487</v>
+      </c>
+      <c r="C41">
+        <v>0.2603778219616478</v>
+      </c>
+      <c r="D41">
+        <v>0.5524071931577659</v>
+      </c>
+      <c r="E41">
+        <v>0.5512930714537516</v>
+      </c>
+      <c r="F41">
+        <v>0.5701240736627577</v>
+      </c>
+      <c r="G41">
+        <v>0.5795005569646917</v>
+      </c>
+      <c r="H41">
+        <v>0.5533167449931865</v>
+      </c>
+      <c r="I41">
+        <v>0.5710402407201607</v>
+      </c>
+      <c r="J41">
+        <v>0.8926011663140839</v>
+      </c>
+      <c r="K41">
+        <v>0.8926011663140839</v>
+      </c>
+      <c r="L41">
+        <v>0.6435959029348384</v>
+      </c>
+      <c r="M41">
+        <v>0.6435959029348384</v>
+      </c>
+      <c r="N41">
+        <v>0.6210590034081187</v>
+      </c>
+      <c r="O41">
+        <v>0.6449020216370241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.429601488352551</v>
+      </c>
+      <c r="C42">
+        <v>0.4920678313051229</v>
+      </c>
+      <c r="D42">
+        <v>0.5519432490854204</v>
+      </c>
+      <c r="E42">
+        <v>0.5105934085664762</v>
+      </c>
+      <c r="F42">
+        <v>0.5642764926868786</v>
+      </c>
+      <c r="G42">
+        <v>0.4420256812102543</v>
+      </c>
+      <c r="H42">
+        <v>0.5406205059012895</v>
+      </c>
+      <c r="I42">
+        <v>0.4949015419574726</v>
+      </c>
+      <c r="J42">
+        <v>0.7697471262030617</v>
+      </c>
+      <c r="K42">
+        <v>0.7765802747153208</v>
+      </c>
+      <c r="L42">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="M42">
+        <v>0.6770032003863301</v>
+      </c>
+      <c r="N42">
+        <v>0.2672612419124243</v>
+      </c>
+      <c r="O42">
+        <v>0.4225771273642582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.5045928417743044</v>
+      </c>
+      <c r="C43">
+        <v>0.5339332783810276</v>
+      </c>
+      <c r="D43">
+        <v>0.4980035152205837</v>
+      </c>
+      <c r="E43">
+        <v>0.4896316613432966</v>
+      </c>
+      <c r="F43">
+        <v>0.691094740465088</v>
+      </c>
+      <c r="G43">
+        <v>0.691094740465088</v>
+      </c>
+      <c r="H43">
+        <v>0.5560384374855327</v>
+      </c>
+      <c r="I43">
+        <v>0.5560384374855327</v>
+      </c>
+      <c r="J43">
+        <v>0.9170605214488301</v>
+      </c>
+      <c r="K43">
+        <v>0.9114252162217646</v>
+      </c>
+      <c r="L43">
+        <v>0.6040686963408963</v>
+      </c>
+      <c r="M43">
+        <v>0.6301260378126045</v>
+      </c>
+      <c r="N43">
+        <v>0.6614378277661476</v>
+      </c>
+      <c r="O43">
+        <v>0.7412493166611012</v>
       </c>
     </row>
   </sheetData>
